--- a/Diagrama de gant.xlsx
+++ b/Diagrama de gant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth\OneDrive - Universidad ESAN\Escritorio\TESIS_2024_01\Tesis-avances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F4814F-E81B-482E-B078-CAC78E506A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ADCB33-968D-4689-A8A8-B8718D1E8261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{5F420781-B126-4E6E-8DCD-983F24B37961}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F420781-B126-4E6E-8DCD-983F24B37961}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
   <si>
     <t>Semana 1</t>
   </si>
@@ -216,6 +216,27 @@
   </si>
   <si>
     <t>Revisión final del Borrador del proyecto.</t>
+  </si>
+  <si>
+    <t>Planteacion de problema INTRO</t>
+  </si>
+  <si>
+    <t>Busqueda de 1 antecedentes</t>
+  </si>
+  <si>
+    <t>Desarrollo de los  1antecedentes</t>
+  </si>
+  <si>
+    <t>Desarrollo de problemas</t>
+  </si>
+  <si>
+    <t>Desarrollo de objetivos</t>
+  </si>
+  <si>
+    <t>Busqueda de5 antecedentes</t>
+  </si>
+  <si>
+    <t>Desarrollo de los  5 antecedentes</t>
   </si>
 </sst>
 </file>
@@ -237,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +349,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -341,22 +380,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -365,6 +395,18 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,325 +743,326 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4E6BA7-B6F6-4DBE-AA0E-65952B707BF5}">
   <dimension ref="A1:DN79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AV16" sqref="AV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="61.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="11.5546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="8" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="6" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6" t="s">
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6" t="s">
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6" t="s">
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6" t="s">
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6" t="s">
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6" t="s">
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6" t="s">
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="6"/>
-      <c r="CE1" s="6"/>
-      <c r="CF1" s="6" t="s">
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="CG1" s="6"/>
-      <c r="CH1" s="6"/>
-      <c r="CI1" s="6"/>
-      <c r="CJ1" s="6"/>
-      <c r="CK1" s="6"/>
-      <c r="CL1" s="6"/>
-      <c r="CM1" s="6" t="s">
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="CN1" s="6"/>
-      <c r="CO1" s="6"/>
-      <c r="CP1" s="6"/>
-      <c r="CQ1" s="6"/>
-      <c r="CR1" s="6"/>
-      <c r="CS1" s="6"/>
-      <c r="CT1" s="6" t="s">
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+      <c r="CP1" s="16"/>
+      <c r="CQ1" s="16"/>
+      <c r="CR1" s="16"/>
+      <c r="CS1" s="16"/>
+      <c r="CT1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="CU1" s="6"/>
-      <c r="CV1" s="6"/>
-      <c r="CW1" s="6"/>
-      <c r="CX1" s="6"/>
-      <c r="CY1" s="6"/>
-      <c r="CZ1" s="6"/>
-      <c r="DA1" s="6" t="s">
+      <c r="CU1" s="16"/>
+      <c r="CV1" s="16"/>
+      <c r="CW1" s="16"/>
+      <c r="CX1" s="16"/>
+      <c r="CY1" s="16"/>
+      <c r="CZ1" s="16"/>
+      <c r="DA1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="DB1" s="6"/>
-      <c r="DC1" s="6"/>
-      <c r="DD1" s="6"/>
-      <c r="DE1" s="6"/>
-      <c r="DF1" s="6"/>
-      <c r="DG1" s="6"/>
-      <c r="DH1" s="6" t="s">
+      <c r="DB1" s="16"/>
+      <c r="DC1" s="16"/>
+      <c r="DD1" s="16"/>
+      <c r="DE1" s="16"/>
+      <c r="DF1" s="16"/>
+      <c r="DG1" s="16"/>
+      <c r="DH1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="DI1" s="6"/>
-      <c r="DJ1" s="6"/>
-      <c r="DK1" s="6"/>
-      <c r="DL1" s="6"/>
-      <c r="DM1" s="6"/>
-      <c r="DN1" s="6"/>
+      <c r="DI1" s="16"/>
+      <c r="DJ1" s="16"/>
+      <c r="DK1" s="16"/>
+      <c r="DL1" s="16"/>
+      <c r="DM1" s="16"/>
+      <c r="DN1" s="16"/>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="6" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6" t="s">
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6" t="s">
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6" t="s">
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6" t="s">
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6" t="s">
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6" t="s">
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="6"/>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="6"/>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="6"/>
-      <c r="BY2" s="6" t="s">
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="16"/>
+      <c r="BT2" s="16"/>
+      <c r="BU2" s="16"/>
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="BZ2" s="6"/>
-      <c r="CA2" s="6"/>
-      <c r="CB2" s="6"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="6"/>
-      <c r="CE2" s="6"/>
-      <c r="CF2" s="6" t="s">
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="16"/>
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="CG2" s="6"/>
-      <c r="CH2" s="6"/>
-      <c r="CI2" s="6"/>
-      <c r="CJ2" s="6"/>
-      <c r="CK2" s="6"/>
-      <c r="CL2" s="6"/>
-      <c r="CM2" s="6"/>
-      <c r="CN2" s="6"/>
-      <c r="CO2" s="6"/>
-      <c r="CP2" s="6"/>
-      <c r="CQ2" s="6"/>
-      <c r="CR2" s="6"/>
-      <c r="CS2" s="6"/>
-      <c r="CT2" s="6" t="s">
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="16"/>
+      <c r="CO2" s="16"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="16"/>
+      <c r="CT2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="CU2" s="6"/>
-      <c r="CV2" s="6"/>
-      <c r="CW2" s="6"/>
-      <c r="CX2" s="6"/>
-      <c r="CY2" s="6"/>
-      <c r="CZ2" s="6"/>
-      <c r="DA2" s="6" t="s">
+      <c r="CU2" s="16"/>
+      <c r="CV2" s="16"/>
+      <c r="CW2" s="16"/>
+      <c r="CX2" s="16"/>
+      <c r="CY2" s="16"/>
+      <c r="CZ2" s="16"/>
+      <c r="DA2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="DB2" s="6"/>
-      <c r="DC2" s="6"/>
-      <c r="DD2" s="6"/>
-      <c r="DE2" s="6"/>
-      <c r="DF2" s="6"/>
-      <c r="DG2" s="6"/>
-      <c r="DH2" s="6" t="s">
+      <c r="DB2" s="16"/>
+      <c r="DC2" s="16"/>
+      <c r="DD2" s="16"/>
+      <c r="DE2" s="16"/>
+      <c r="DF2" s="16"/>
+      <c r="DG2" s="16"/>
+      <c r="DH2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="DI2" s="6"/>
-      <c r="DJ2" s="6"/>
-      <c r="DK2" s="6"/>
-      <c r="DL2" s="6"/>
-      <c r="DM2" s="6"/>
-      <c r="DN2" s="6"/>
+      <c r="DI2" s="16"/>
+      <c r="DJ2" s="16"/>
+      <c r="DK2" s="16"/>
+      <c r="DL2" s="16"/>
+      <c r="DM2" s="16"/>
+      <c r="DN2" s="16"/>
     </row>
     <row r="3" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -1370,8 +1413,8 @@
       </c>
     </row>
     <row r="4" spans="1:118" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4">
         <v>21</v>
       </c>
@@ -1733,15 +1776,15 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="DH5" s="7" t="s">
+      <c r="DH5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="DI5" s="7"/>
-      <c r="DJ5" s="7"/>
-      <c r="DK5" s="7"/>
-      <c r="DL5" s="7"/>
-      <c r="DM5" s="7"/>
-      <c r="DN5" s="7"/>
+      <c r="DI5" s="14"/>
+      <c r="DJ5" s="14"/>
+      <c r="DK5" s="14"/>
+      <c r="DL5" s="14"/>
+      <c r="DM5" s="14"/>
+      <c r="DN5" s="14"/>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1756,13 +1799,13 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="DH6" s="7"/>
-      <c r="DI6" s="7"/>
-      <c r="DJ6" s="7"/>
-      <c r="DK6" s="7"/>
-      <c r="DL6" s="7"/>
-      <c r="DM6" s="7"/>
-      <c r="DN6" s="7"/>
+      <c r="DH6" s="14"/>
+      <c r="DI6" s="14"/>
+      <c r="DJ6" s="14"/>
+      <c r="DK6" s="14"/>
+      <c r="DL6" s="14"/>
+      <c r="DM6" s="14"/>
+      <c r="DN6" s="14"/>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1772,13 +1815,13 @@
         <v>44</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="DH7" s="7"/>
-      <c r="DI7" s="7"/>
-      <c r="DJ7" s="7"/>
-      <c r="DK7" s="7"/>
-      <c r="DL7" s="7"/>
-      <c r="DM7" s="7"/>
-      <c r="DN7" s="7"/>
+      <c r="DH7" s="14"/>
+      <c r="DI7" s="14"/>
+      <c r="DJ7" s="14"/>
+      <c r="DK7" s="14"/>
+      <c r="DL7" s="14"/>
+      <c r="DM7" s="14"/>
+      <c r="DN7" s="14"/>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1813,12 +1856,12 @@
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1827,9 +1870,9 @@
       <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1838,7 +1881,7 @@
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="AB12" s="11"/>
+      <c r="AB12" s="8"/>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1847,7 +1890,7 @@
       <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="AB13" s="12"/>
+      <c r="AB13" s="9"/>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1856,7 +1899,7 @@
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="AB14" s="13"/>
+      <c r="AB14" s="10"/>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1865,9 +1908,9 @@
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1876,29 +1919,29 @@
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="AB17" s="16"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB17" s="13"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1932,62 +1975,102 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB23" s="2"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AN30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2001,49 +2084,6 @@
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -2054,6 +2094,49 @@
       <c r="A36">
         <v>32</v>
       </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -2465,6 +2548,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AW1:BC1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="U2:AA2"/>
+    <mergeCell ref="AB1:AH1"/>
+    <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="AI1:AO1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="DA2:DG2"/>
+    <mergeCell ref="DH2:DN2"/>
+    <mergeCell ref="DH5:DN7"/>
+    <mergeCell ref="CT1:CZ1"/>
+    <mergeCell ref="DA1:DG1"/>
+    <mergeCell ref="DH1:DN1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="J1:M2"/>
@@ -2481,24 +2582,6 @@
     <mergeCell ref="BY1:CE1"/>
     <mergeCell ref="CF1:CL1"/>
     <mergeCell ref="CM1:CS1"/>
-    <mergeCell ref="DA2:DG2"/>
-    <mergeCell ref="DH2:DN2"/>
-    <mergeCell ref="DH5:DN7"/>
-    <mergeCell ref="CT1:CZ1"/>
-    <mergeCell ref="DA1:DG1"/>
-    <mergeCell ref="DH1:DN1"/>
-    <mergeCell ref="AW1:BC1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="AB1:AH1"/>
-    <mergeCell ref="AB2:AH2"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AP1:AV1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
